--- a/Proyectos de Inversiones/Ejercicios TIR y VPN.xlsx
+++ b/Proyectos de Inversiones/Ejercicios TIR y VPN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Arcos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Arcos\Documents\GitHub\Universidad\Proyectos de Inversiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEE945-6C99-426C-9FFC-309BF8FC011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA92FE-1D48-4AB9-BCBA-51032EBB326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{6E49FDAA-4516-4BC2-83DE-E3319ECB3D59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{6E49FDAA-4516-4BC2-83DE-E3319ECB3D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Ejercicio 1" sheetId="8" r:id="rId6"/>
     <sheet name="Ejercicio 2" sheetId="9" r:id="rId7"/>
+    <sheet name="Ejercicio 3" sheetId="10" r:id="rId8"/>
+    <sheet name="Ejercicio 4" sheetId="11" r:id="rId9"/>
+    <sheet name="Ejercicio 5" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Flujos</t>
   </si>
@@ -150,6 +153,93 @@
   </si>
   <si>
     <t>Valor real maquina</t>
+  </si>
+  <si>
+    <t>Flujos anuales</t>
+  </si>
+  <si>
+    <t>Tasa descuento/Costo capital</t>
+  </si>
+  <si>
+    <t>Valor residual</t>
+  </si>
+  <si>
+    <t>Valor residual total</t>
+  </si>
+  <si>
+    <t>Activos fijos</t>
+  </si>
+  <si>
+    <t>Costo de capital</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>VP Flujos</t>
+  </si>
+  <si>
+    <t>VP Capital Trabajo</t>
+  </si>
+  <si>
+    <t>Unidades/a</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Costo especial</t>
+  </si>
+  <si>
+    <t>Costo variablel</t>
+  </si>
+  <si>
+    <t>Periodo en años</t>
+  </si>
+  <si>
+    <t>Capacidad actual</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Aumento equipo</t>
+  </si>
+  <si>
+    <t>Costo equipo</t>
+  </si>
+  <si>
+    <t>Capacidad equipo</t>
+  </si>
+  <si>
+    <t>Depreciacion</t>
+  </si>
+  <si>
+    <t>Flujo sin inversion</t>
+  </si>
+  <si>
+    <t>Flujo con inversion</t>
+  </si>
+  <si>
+    <t>Incremento costos</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Contribucion marginal</t>
+  </si>
+  <si>
+    <t>--------------</t>
+  </si>
+  <si>
+    <t>Costos desembolsables</t>
+  </si>
+  <si>
+    <t>Costo de capital / Tasa</t>
   </si>
 </sst>
 </file>
@@ -195,11 +285,11 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,6 +745,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5563664-E4B8-4C25-BC7B-7040D1A3CA50}">
+  <dimension ref="A3:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>200000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <f>B3*(B4-B5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="F4">
+        <f>B3*(B4-B5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G4">
+        <f>B3*(B4-B5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="H4">
+        <f>B3*(B4-B5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="I4">
+        <f>B3*(B4-B5)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-100000</v>
+      </c>
+      <c r="E7">
+        <f>B3*(B4-B5)+B9*(B6-B5)</f>
+        <v>1080000</v>
+      </c>
+      <c r="F7">
+        <f>B3*(B4-B5)+B9*(B6-B5)</f>
+        <v>1080000</v>
+      </c>
+      <c r="G7">
+        <f>B3*(B4-B5)+B9*(B6-B5)</f>
+        <v>1080000</v>
+      </c>
+      <c r="H7">
+        <f>B3*(B4-B5)+B9*(B6-B5)</f>
+        <v>1080000</v>
+      </c>
+      <c r="I7">
+        <f>B3*(B4-B5)+B9*(B6-B5)</f>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <f>B9*B6</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <f>B5*B9</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <f>E9-E10</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <f>B8+B11</f>
+        <v>260000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <f>B10</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA08A11E-0802-46FF-BD22-E8198FB1F2AD}">
   <dimension ref="A1:E12"/>
@@ -1278,7 +1611,7 @@
         <f>C2*D2+C5*D5</f>
         <v>1840000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>C7/(C2+C5)</f>
         <v>0.184</v>
       </c>
@@ -1293,7 +1626,7 @@
         <f>C3*D3+C4*D4</f>
         <v>2000000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>C8/(C3+C4)</f>
         <v>0.2</v>
       </c>
@@ -1301,7 +1634,6 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F9" s="4"/>
       <c r="H9" s="3"/>
     </row>
   </sheetData>
@@ -1314,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B695ECE5-D2F1-4A35-8EF1-2EDADC038CC5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1346,7 +1678,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>-B6+B9+(B8-B9)*B11</f>
         <v>-325000</v>
       </c>
@@ -1490,4 +1822,576 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD07C28-B48C-4481-9426-3BDB152238E2}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <f>-B6</f>
+        <v>-2700000</v>
+      </c>
+      <c r="B2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="C2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="D2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="E2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="F2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="G2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="H2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="I2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="J2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="K2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="L2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="M2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="N2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="O2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="P2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="Q2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="R2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="S2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="T2">
+        <f>B4</f>
+        <v>360000</v>
+      </c>
+      <c r="U2">
+        <f>B4+U3</f>
+        <v>860000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>B7</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <f>NPV(B10,B2:U2)</f>
+        <v>2160075.4518746519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>2500000+B7*B11</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <f>NPV(B10,B3:U3)</f>
+        <v>25692.728035814071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B5-B6+B8</f>
+        <v>-514231.82008953398</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <f>IRR(A2:U2)</f>
+        <v>0.12232574165168431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A35A39-3353-4D73-9544-5D99C4125178}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <f>-B8</f>
+        <v>-5000000</v>
+      </c>
+      <c r="B2">
+        <f>B3+B5+B4</f>
+        <v>1500000</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F2" si="0">C3+C5+C4</f>
+        <v>1500000</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1700000</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>700000</v>
+      </c>
+      <c r="C3">
+        <v>700000</v>
+      </c>
+      <c r="D3">
+        <v>700000</v>
+      </c>
+      <c r="E3">
+        <v>900000</v>
+      </c>
+      <c r="F3">
+        <f>900000</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <f>B6*B9</f>
+        <v>800000</v>
+      </c>
+      <c r="C5">
+        <f>B6*B9</f>
+        <v>800000</v>
+      </c>
+      <c r="D5">
+        <f>B6*B9</f>
+        <v>800000</v>
+      </c>
+      <c r="E5">
+        <f>B6*B9</f>
+        <v>800000</v>
+      </c>
+      <c r="F5">
+        <f>B6*B9</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>B6+B7</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <f>NPV(B10,B2:F2)</f>
+        <v>6952770.8626169218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <f>IRR(A2:F2)</f>
+        <v>0.20535110302112258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2">
+        <f>NPV(B10,B2:F2)</f>
+        <v>6952770.8626169218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <f>NPV(B10,B4:F4)</f>
+        <v>680583.19703375304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B11-B6-B7</f>
+        <v>1952770.8626169218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>